--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>Course</t>
   </si>
@@ -250,6 +250,51 @@
     <t>7.50%</t>
   </si>
   <si>
+    <t>COSC-275</t>
+  </si>
+  <si>
+    <t>BIGELOW B</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>COSC-301</t>
+  </si>
+  <si>
+    <t>WILLIAMSON K</t>
+  </si>
+  <si>
+    <t>24.56%</t>
+  </si>
+  <si>
+    <t>8.77%</t>
+  </si>
+  <si>
+    <t>COSC-321</t>
+  </si>
+  <si>
+    <t>CHOI K</t>
+  </si>
+  <si>
+    <t>25.93%</t>
+  </si>
+  <si>
+    <t>40.74%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
     <t>COSC-325</t>
   </si>
   <si>
@@ -349,9 +394,6 @@
     <t>COSC-465</t>
   </si>
   <si>
-    <t>50.00%</t>
-  </si>
-  <si>
     <t>COSC-474</t>
   </si>
   <si>
@@ -479,9 +521,6 @@
   </si>
   <si>
     <t>92.31%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
   </si>
   <si>
     <t>LAND-685</t>
@@ -914,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,7 +1445,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="n">
-        <v>3.125</v>
+        <v>2.692</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -1415,35 +1454,35 @@
         <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C54" t="n">
-        <v>3.533</v>
+        <v>3.158</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -1454,80 +1493,80 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" t="n">
-        <v>3.067</v>
+        <v>2.63</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C60" t="n">
-        <v>3.591</v>
+        <v>3.125</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C63" t="n">
-        <v>3.188</v>
+        <v>3.533</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -1538,49 +1577,49 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C66" t="n">
-        <v>3.073</v>
+        <v>3.067</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F66" t="s">
         <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C69" t="n">
-        <v>3.6</v>
+        <v>3.591</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -1589,187 +1628,187 @@
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" t="s">
+        <v>115</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
         <v>106</v>
       </c>
-      <c r="C72" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" t="s">
-        <v>108</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="C85" t="n">
         <v>4</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D85" t="s">
         <v>34</v>
       </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2.429</v>
-      </c>
-      <c r="D80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D83" t="s">
-        <v>80</v>
-      </c>
-      <c r="E83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>117</v>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C86" t="n">
-        <v>3.462</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -1780,24 +1819,24 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C89" t="n">
-        <v>3.643</v>
+        <v>2.429</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -1808,134 +1847,134 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C92" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" t="n">
         <v>4</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D101" t="s">
         <v>34</v>
       </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="D96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="D99" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" t="s">
-        <v>135</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>136</v>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="B102" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C102" t="n">
-        <v>3.091</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -1943,21 +1982,21 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C105" t="n">
-        <v>3.421</v>
+        <v>3.955</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -1971,27 +2010,27 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C108" t="n">
-        <v>3.591</v>
+        <v>2.947</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
@@ -1999,52 +2038,52 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C111" t="n">
-        <v>3.351</v>
+        <v>3.091</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="H111" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="B114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C114" t="n">
-        <v>3.846</v>
+        <v>3.421</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F114" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>14</v>
@@ -2055,27 +2094,27 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3.591</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -2083,52 +2122,52 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C120" t="n">
-        <v>3.8</v>
+        <v>3.351</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E120" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C123" t="n">
-        <v>3.643</v>
+        <v>3.846</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -2139,7 +2178,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2147,10 +2186,10 @@
         <v>162</v>
       </c>
       <c r="C126" t="n">
-        <v>2.857</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -2162,57 +2201,57 @@
         <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C129" t="n">
-        <v>3.04</v>
+        <v>3.8</v>
       </c>
       <c r="D129" t="s">
         <v>104</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F129" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C132" t="n">
-        <v>3.421</v>
+        <v>3.643</v>
       </c>
       <c r="D132" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -2223,21 +2262,21 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>2.857</v>
       </c>
       <c r="D135" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -2246,57 +2285,57 @@
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C141" t="n">
-        <v>3.5</v>
+        <v>3.421</v>
       </c>
       <c r="D141" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -2307,49 +2346,49 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C144" t="n">
-        <v>3.444</v>
+        <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="E144" t="s">
         <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="C147" t="n">
-        <v>3.737</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="E147" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -2363,24 +2402,24 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C150" t="n">
-        <v>3.143</v>
+        <v>3.5</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="F150" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
@@ -2391,29 +2430,113 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C153" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D153" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>192</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D156" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" t="s">
+        <v>195</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D159" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" t="s">
+        <v>198</v>
+      </c>
+      <c r="F159" t="s">
+        <v>61</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>200</v>
+      </c>
+      <c r="C162" t="n">
         <v>4</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D162" t="s">
         <v>34</v>
       </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ARCH-249</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>5.13%</t>
+  </si>
+  <si>
     <t>CARC-311</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>7.41%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>COSC-325</t>
   </si>
   <si>
@@ -367,6 +376,9 @@
     <t>3.64%</t>
   </si>
   <si>
+    <t>1.79%</t>
+  </si>
+  <si>
     <t>COSC-461</t>
   </si>
   <si>
@@ -515,6 +527,9 @@
   </si>
   <si>
     <t>0.90%</t>
+  </si>
+  <si>
+    <t>0.89%</t>
   </si>
   <si>
     <t>LAND-630</t>
@@ -654,12 +669,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -953,15 +967,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,1558 +1000,1729 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.531</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.355</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>2.353</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>3.667</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>3.5</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
         <v>3.364</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n">
         <v>3.392</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
         <v>3.875</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="n">
         <v>3.054</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" t="n">
         <v>3.857</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" t="n">
         <v>3.92</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" t="n">
         <v>2.725</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="n">
         <v>2.675</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" t="n">
         <v>2.692</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C54" t="n">
         <v>3.158</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C57" t="n">
         <v>2.63</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C60" t="n">
         <v>3.125</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C63" t="n">
         <v>3.533</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C66" t="n">
         <v>3.067</v>
       </c>
       <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" t="s">
         <v>103</v>
       </c>
-      <c r="E66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" t="s">
-        <v>100</v>
-      </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C69" t="n">
         <v>3.591</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C72" t="n">
         <v>3.188</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C75" t="n">
         <v>3.073</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C78" t="n">
         <v>3.6</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C81" t="n">
         <v>3.333</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C86" t="n">
         <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C89" t="n">
         <v>2.429</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C92" t="n">
         <v>3.375</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C95" t="n">
         <v>3.462</v>
       </c>
       <c r="D95" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C98" t="n">
         <v>3.643</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C105" t="n">
         <v>3.955</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C108" t="n">
         <v>2.947</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C111" t="n">
         <v>3.091</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F111" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G111" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C114" t="n">
         <v>3.421</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C117" t="n">
         <v>3.591</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F117" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G117" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C120" t="n">
         <v>3.351</v>
       </c>
       <c r="D120" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E120" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F120" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H120" t="s">
+        <v>170</v>
+      </c>
+      <c r="I120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="B123" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="B123" t="s">
-        <v>162</v>
       </c>
       <c r="C123" t="n">
         <v>3.846</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C129" t="n">
         <v>3.8</v>
       </c>
       <c r="D129" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C132" t="n">
         <v>3.643</v>
       </c>
       <c r="D132" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E132" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C135" t="n">
         <v>2.857</v>
       </c>
       <c r="D135" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C138" t="n">
         <v>3.04</v>
       </c>
       <c r="D138" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E138" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F138" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G138" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H138" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C141" t="n">
         <v>3.421</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E141" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F141" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C144" t="n">
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C150" t="n">
         <v>3.5</v>
       </c>
       <c r="D150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C153" t="n">
         <v>3.444</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C156" t="n">
         <v>3.737</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E156" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C159" t="n">
         <v>3.143</v>
       </c>
       <c r="D159" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E159" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I162" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>Course</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>3.64%</t>
+  </si>
+  <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>FERNANDEZ-SOLIS J</t>
   </si>
   <si>
     <t>COSC-461</t>
@@ -953,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,13 +1703,13 @@
         <v>118</v>
       </c>
       <c r="C78" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -1717,63 +1723,63 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" t="n">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="n">
         <v>3.333</v>
       </c>
-      <c r="D81" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" t="s">
         <v>99</v>
       </c>
-      <c r="F81" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
+      <c r="F84" t="s">
         <v>125</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
@@ -1794,49 +1800,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>126</v>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C89" t="n">
-        <v>2.429</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -1847,24 +1853,24 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="D92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" t="s">
         <v>130</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -1883,16 +1889,16 @@
         <v>132</v>
       </c>
       <c r="C95" t="n">
-        <v>3.462</v>
+        <v>3.375</v>
       </c>
       <c r="D95" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
@@ -1903,24 +1909,24 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C98" t="n">
-        <v>3.643</v>
+        <v>3.462</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" t="s">
         <v>137</v>
-      </c>
-      <c r="F98" t="s">
-        <v>138</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
@@ -1931,72 +1937,72 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" t="s">
         <v>140</v>
       </c>
-      <c r="C101" t="n">
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="n">
         <v>4</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D104" t="s">
         <v>34</v>
       </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>141</v>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C105" t="n">
-        <v>3.955</v>
+        <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -2010,24 +2016,24 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" t="s">
         <v>146</v>
       </c>
-      <c r="C108" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="D108" t="s">
-        <v>147</v>
-      </c>
-      <c r="E108" t="s">
-        <v>148</v>
-      </c>
       <c r="F108" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -2038,27 +2044,27 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" t="s">
         <v>151</v>
       </c>
-      <c r="C111" t="n">
-        <v>3.091</v>
-      </c>
-      <c r="D111" t="s">
-        <v>152</v>
-      </c>
-      <c r="E111" t="s">
-        <v>81</v>
-      </c>
-      <c r="F111" t="s">
-        <v>153</v>
-      </c>
       <c r="G111" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
@@ -2066,27 +2072,27 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="B114" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C114" t="n">
-        <v>3.421</v>
+        <v>3.091</v>
       </c>
       <c r="D114" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" t="s">
         <v>155</v>
       </c>
-      <c r="E114" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -2094,27 +2100,27 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" t="s">
         <v>158</v>
       </c>
-      <c r="C117" t="n">
-        <v>3.591</v>
-      </c>
-      <c r="D117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" t="s">
-        <v>160</v>
-      </c>
       <c r="F117" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -2122,58 +2128,58 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" t="s">
         <v>162</v>
       </c>
-      <c r="C120" t="n">
-        <v>3.351</v>
-      </c>
-      <c r="D120" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" t="s">
-        <v>164</v>
-      </c>
       <c r="F120" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="H120" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C123" t="n">
-        <v>3.846</v>
+        <v>3.351</v>
       </c>
       <c r="D123" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" t="s">
+        <v>166</v>
+      </c>
+      <c r="F123" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" t="s">
+        <v>55</v>
+      </c>
+      <c r="H123" t="s">
         <v>168</v>
-      </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>83</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2183,19 +2189,19 @@
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3.846</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G126" t="s">
         <v>14</v>
@@ -2206,21 +2212,21 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C129" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -2242,16 +2248,16 @@
         <v>173</v>
       </c>
       <c r="C132" t="n">
-        <v>3.643</v>
+        <v>3.8</v>
       </c>
       <c r="D132" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E132" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -2270,106 +2276,106 @@
         <v>175</v>
       </c>
       <c r="C135" t="n">
-        <v>2.857</v>
+        <v>3.643</v>
       </c>
       <c r="D135" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="D138" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
         <v>178</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D138" t="s">
-        <v>119</v>
-      </c>
-      <c r="E138" t="s">
-        <v>119</v>
-      </c>
-      <c r="F138" t="s">
-        <v>65</v>
-      </c>
-      <c r="G138" t="s">
-        <v>65</v>
-      </c>
-      <c r="H138" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" t="s">
+        <v>65</v>
+      </c>
+      <c r="G141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H141" t="s">
         <v>181</v>
-      </c>
-      <c r="C141" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D141" t="s">
-        <v>182</v>
-      </c>
-      <c r="E141" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" t="s">
-        <v>147</v>
-      </c>
-      <c r="G141" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>3.421</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -2379,16 +2385,16 @@
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -2397,26 +2403,26 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="C150" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E150" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -2438,16 +2444,16 @@
         <v>190</v>
       </c>
       <c r="C153" t="n">
-        <v>3.444</v>
+        <v>3.5</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
@@ -2458,24 +2464,24 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="B156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" t="s">
         <v>194</v>
-      </c>
-      <c r="C156" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D156" t="s">
-        <v>148</v>
-      </c>
-      <c r="E156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F156" t="s">
-        <v>14</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -2486,24 +2492,24 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D159" t="s">
+        <v>150</v>
+      </c>
+      <c r="E159" t="s">
         <v>197</v>
       </c>
-      <c r="C159" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D159" t="s">
-        <v>176</v>
-      </c>
-      <c r="E159" t="s">
-        <v>198</v>
-      </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -2514,29 +2520,57 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E162" t="s">
         <v>200</v>
       </c>
-      <c r="C162" t="n">
+      <c r="F162" t="s">
+        <v>61</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" t="n">
         <v>4</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D165" t="s">
         <v>34</v>
       </c>
-      <c r="E162" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
         <v>14</v>
       </c>
     </row>
